--- a/biology/Zoologie/Graptemys_pseudogeographica/Graptemys_pseudogeographica.xlsx
+++ b/biology/Zoologie/Graptemys_pseudogeographica/Graptemys_pseudogeographica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graptemys pseudogeographica est une espèce de tortue de la famille des Emydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graptemys pseudogeographica est une espèce de tortue de la famille des Emydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre au Minnesota, au Wisconsin, en Indiana, en Ohio, en Iowa, en Illinois, au Missouri, au Kansas, au Nebraska, au Dakota du Nord, au Dakota du Sud, en Oklahoma, au Texas, en Louisiane, en Arkansas, au Mississippi, au Tennessee, au Kentucky et en Virginie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre au Minnesota, au Wisconsin, en Indiana, en Ohio, en Iowa, en Illinois, au Missouri, au Kansas, au Nebraska, au Dakota du Nord, au Dakota du Sud, en Oklahoma, au Texas, en Louisiane, en Arkansas, au Mississippi, au Tennessee, au Kentucky et en Virginie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (27 mai 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (27 mai 2011) :
 Graptemys pseudogeographica kohnii (Baur, 1890)
 Graptemys pseudogeographica pseudogeographica (Gray, 1831)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Graptemys pseudogeographica kohnii (Baur, 1890) a été élevée au statut d'espèce[3] avant d'être de nouveau rattaché à cette espèce par Vogt, 1993[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Graptemys pseudogeographica kohnii (Baur, 1890) a été élevée au statut d'espèce avant d'être de nouveau rattaché à cette espèce par Vogt, 1993.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baur, 1890 : Two new species of tortoises from the South. Science, ser. 1, vol. 16, p. 262-263.
 Gray, 1831 : Synopsis Reptilium or short descriptions of the species of reptiles. Part I: Cataphracta, tortoises, crocodiles, and enaliosaurians. Treuttel, Wurz &amp; Co., London, p. 1-85 (texte intégral).</t>
